--- a/Simulation Results 011220 (wd=0.00001).xlsx
+++ b/Simulation Results 011220 (wd=0.00001).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrianLam/UTSC Research/Plaut_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC9456F-3522-6441-9039-4D99D61AEE5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A543744-6F71-5A46-9C38-4074A4A758D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="2" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="2" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Simulation 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Simulation 3" sheetId="4" r:id="rId3"/>
+    <sheet name="N" sheetId="2" r:id="rId1"/>
+    <sheet name="2N" sheetId="3" r:id="rId2"/>
+    <sheet name="3N" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -169,22 +169,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>777402</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>61465</xdr:rowOff>
+      <xdr:colOff>806827</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>462489</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>109591</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A215DA45-FC25-3C4B-AD22-ACD3D71FE58E}"/>
+      <xdr:colOff>540874</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>146422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB96BBC-A688-A944-AF95-97C3FAB00271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -200,8 +200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5790560" y="10889886"/>
-          <a:ext cx="5533771" cy="3657600"/>
+          <a:off x="5737415" y="10503646"/>
+          <a:ext cx="5486400" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -213,22 +213,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>96630</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114066</xdr:rowOff>
+      <xdr:colOff>119532</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>194234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609977</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>162192</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5A8CAD-B355-324A-8B16-B6489C6D9950}"/>
+      <xdr:colOff>675344</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>86657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136A7ED5-CB4C-9A44-909C-1676CD0EA4B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -244,52 +244,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="96630" y="10942487"/>
-          <a:ext cx="5526505" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+          <a:off x="119532" y="10443881"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>555813</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A726E95-267A-0D4C-A93D-5EC3B1462151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5752354" y="14358470"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>739329</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>120752</xdr:rowOff>
+      <xdr:colOff>735108</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>56776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7721D5-D4BE-3C48-8FFC-8A694D2B3CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="179296" y="14388352"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>791884</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>423835</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>168878</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653A392E-029B-7441-969C-3CCB7A5D232B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5752487" y="14759173"/>
-          <a:ext cx="5533190" cy="3657600"/>
+      <xdr:colOff>525931</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAF9360-6A0E-0C41-9DCD-5BD7DA344290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722472" y="6603999"/>
+          <a:ext cx="5486400" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -301,154 +389,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104330</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>134266</xdr:rowOff>
+      <xdr:colOff>119530</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>617677</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>188930</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88C6914-65C1-2342-B739-941D17FCDA3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104330" y="14772687"/>
-          <a:ext cx="5526505" cy="3664138"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:colOff>675342</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243D2D5B-BA62-204E-A654-680EB79E0B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="119530" y="6633882"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>729013</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>67278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>413519</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>115404</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FE1491-9FAB-2D4B-856D-2463200AE2F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5742171" y="7085699"/>
-          <a:ext cx="5533190" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>107382</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>167540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>620729</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>15140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEC3E93-7449-1F4F-B535-93DD980A1454}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="107382" y="6985435"/>
-          <a:ext cx="5526505" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>46789</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167104</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>560136</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>14704</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70D9B04-31AA-8C44-8066-1BBA4A63D037}"/>
+      <xdr:colOff>690283</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>191247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4DF1EF-4B4D-254E-A36C-8C5245326091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,8 +464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46789" y="3174999"/>
-          <a:ext cx="5526505" cy="3657600"/>
+          <a:off x="134471" y="2808941"/>
+          <a:ext cx="5486400" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,83 +481,259 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67736</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>575736</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210C6A2E-BDB6-9342-8985-071F2666FB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875869" y="10566401"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>270931</xdr:colOff>
+      <xdr:colOff>270935</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>778935</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A66D41F-E4F9-924B-ACAE-2915CC189C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="270935" y="10549469"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50803</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558803</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954156B2-B3D8-7D4E-BD8E-A61C15C9145F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5858936" y="14647335"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>270935</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>778935</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47E7077-46CF-E649-8D2B-CE3FB2C5A82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="270935" y="14664268"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558801</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>186264</xdr:rowOff>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B1636D-31AB-6A42-85A1-8B6DAFF90EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5858934" y="6654801"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>778931</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>186264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C80B96-4276-B044-B5FC-40CA385C86A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="270931" y="10430931"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>118532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>558799</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>118532</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62946AB2-3E44-E84E-8DB5-FE37DA397BD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5858932" y="14223999"/>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD2F337-81CA-4943-A5C7-32292B439D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254001" y="6604000"/>
           <a:ext cx="5486400" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -570,198 +746,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>321733</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>135464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>135464</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF30B928-9A88-EE40-B93F-AB92C6A20B4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="321733" y="14240931"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16932</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>524932</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>67732</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA87B3AF-3ECD-A946-A93A-A86584CA6FF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5825065" y="6654799"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>237066</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>745066</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7F5B8E-93F4-7746-96BB-F7D157A24BF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="237066" y="6603999"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>220133</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>728133</xdr:colOff>
+      <xdr:colOff>711200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC799CDF-1C68-E34A-8AB8-47FECF208206}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="220133" y="2861733"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>169330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>558799</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>169330</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A354BBC-91C2-9345-98D9-1CDA0828048B}"/>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA715139-F387-2042-8DFB-BDB28C50DC50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +777,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5858932" y="10413997"/>
+          <a:off x="203200" y="2861734"/>
           <a:ext cx="5486400" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -794,39 +794,215 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA44D05-86A9-8345-8D4C-5C8B9165E128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="10414000"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116C103D-D4E4-7A48-9BB2-F71E0D2FE3D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="10414000"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF05D3D-E9FC-9A49-B40D-BEF5BFEE00C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="14274800"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA56949-8F20-5948-8BBA-B162DD4A7D46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="14236700"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94886432-9EA2-6748-BFC5-221EC7098332}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="10350500"/>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BE206A-B682-4546-B041-0BB61A7C4A78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="6692900"/>
           <a:ext cx="5486400" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -839,242 +1015,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E55FC9-7A1C-884D-8281-072BD911E3CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="6642100"/>
+          <a:ext cx="5486400" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2F115E-C44B-174B-B751-6FB982F9891C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="10337800"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1265AE3-BD8A-FC48-B78E-9013AADB5B67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5880100" y="14236700"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA2BE5A-3923-5545-9E08-7FFB8AEC4E79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="14236700"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EF60CD-C94A-534E-B193-E6112CBAE571}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5803900" y="6515100"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18AC1EA1-A321-524E-8CD6-C4C33A86407A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="6540500"/>
-          <a:ext cx="5486400" cy="3657600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C9F52B-F4F0-1D43-A970-12D5B0906964}"/>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD68AD6-7C76-F841-8600-67ADCADD60AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,7 +1090,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="177800" y="2832100"/>
+          <a:off x="165100" y="2895600"/>
           <a:ext cx="5486400" cy="3657600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91334DBB-3320-CA41-8063-97F176F4831A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView topLeftCell="A27" zoomScale="185" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A30168-F67C-BC4E-A581-6173ACDBEC56}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+    <sheetView topLeftCell="A43" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88E278-0A57-1441-9931-94C815493842}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Simulation Results 011220 (wd=0.00001).xlsx
+++ b/Simulation Results 011220 (wd=0.00001).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrianLam/UTSC Research/Plaut_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A543744-6F71-5A46-9C38-4074A4A758D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5C9217-5694-6347-B52A-A9906C3937F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="2" xr2:uid="{731A8A60-4D85-694D-9B57-3EC626427640}"/>
   </bookViews>
@@ -244,8 +244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="119532" y="10443881"/>
-          <a:ext cx="5486400" cy="3657600"/>
+          <a:off x="119532" y="10021615"/>
+          <a:ext cx="5545098" cy="3430280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -345,15 +345,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>791884</xdr:colOff>
+      <xdr:colOff>819695</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>119528</xdr:rowOff>
+      <xdr:rowOff>147338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>525931</xdr:colOff>
+      <xdr:colOff>553742</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>11952</xdr:rowOff>
+      <xdr:rowOff>39762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -376,8 +376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5722472" y="6603999"/>
-          <a:ext cx="5486400" cy="3657600"/>
+          <a:off x="5769914" y="6543688"/>
+          <a:ext cx="5509302" cy="3563373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91334DBB-3320-CA41-8063-97F176F4831A}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="185" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView topLeftCell="A37" zoomScale="164" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A30168-F67C-BC4E-A581-6173ACDBEC56}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView topLeftCell="A56" zoomScale="142" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88E278-0A57-1441-9931-94C815493842}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
